--- a/src/main/resources/Testdata.xlsx
+++ b/src/main/resources/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akhil\eclipse-workspace\7RMartSuperMarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4F53FB-B9E9-48E5-A6EB-9BEA685C3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D50E2-80DF-40E0-95BD-F67131382B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{EA3D1907-4069-485B-8A45-B056131274AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{EA3D1907-4069-485B-8A45-B056131274AC}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPageTest" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ManageProductTest" sheetId="6" r:id="rId4"/>
     <sheet name="ManageNewsTest" sheetId="4" r:id="rId5"/>
     <sheet name="ManageFooterTest" sheetId="5" r:id="rId6"/>
+    <sheet name="ManageContactsTest" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -85,9 +86,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>lakshmi</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -107,16 +105,45 @@
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>duv@gmail</t>
+  </si>
+  <si>
+    <t>lakshmi@gmail</t>
+  </si>
+  <si>
+    <t>whitevilla</t>
+  </si>
+  <si>
+    <t>deliverytime</t>
+  </si>
+  <si>
+    <t>two hrs</t>
+  </si>
+  <si>
+    <t>deliverycl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,13 +166,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,10 +569,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -590,18 +620,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -641,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E2E38D-5A04-4AAC-96A9-73A8AA8259E7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,21 +688,76 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A22F2260-1888-482D-B53A-03BF88063E15}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBF1242-539E-43D1-9597-C691D9A104AB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1234</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{47362B8F-EAC4-4C77-9B85-0C360AE97E4E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/Testdata.xlsx
+++ b/src/main/resources/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akhil\eclipse-workspace\7RMartSuperMarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D50E2-80DF-40E0-95BD-F67131382B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CCA7EA-E0A1-490D-98C3-4600C777357E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{EA3D1907-4069-485B-8A45-B056131274AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{EA3D1907-4069-485B-8A45-B056131274AC}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPageTest" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Username</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>deliverycl</t>
+  </si>
+  <si>
+    <t>usertype</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
@@ -547,10 +553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF90B56-F216-47E5-AF0C-D4D175E73F9A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,20 +565,26 @@
     <col min="2" max="2" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBF1242-539E-43D1-9597-C691D9A104AB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
